--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-14_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-14_beg.xlsx
@@ -3308,7 +3308,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  Whatever image you have of her in your head, if she were some kind of "messiah", the old man and I wouldn't be leading "Reunion" at all.
+    <t xml:space="preserve">[name="FrostNova"]  Whatever image you have of her in your head, if she were some kind of 'messiah', the old man and I wouldn't be leading 'Reunion' at all.
 </t>
   </si>
   <si>
@@ -3372,7 +3372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  "I imagined my tragic death, but I never thought it would be so lonely."
+    <t xml:space="preserve">[name="FrostNova"]  'I imagined my tragic death, but I never thought it would be so lonely.'
 </t>
   </si>
   <si>
@@ -3388,7 +3388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  ..."Sorrow."
+    <t xml:space="preserve">[name="FrostNova"]  ...'Sorrow.'
 </t>
   </si>
   <si>
@@ -3444,7 +3444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  "Why?"
+    <t xml:space="preserve">[name="FrostNova"]  'Why?'
 </t>
   </si>
   <si>
@@ -3512,7 +3512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  "The Infected should be proud of who they are, and use the simplest means to seize justice from the world"....
+    <t xml:space="preserve">[name="FrostNova"]  'The Infected should be proud of who they are, and use the simplest means to seize justice from the world'....
 </t>
   </si>
   <si>
@@ -3828,7 +3828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  "If we must fight, then we fight to the end."
+    <t xml:space="preserve">[name="Amiya"]  'If we must fight, then we fight to the end.'
 </t>
   </si>
   <si>
@@ -3912,7 +3912,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="FrostNova"]  "Even time itself will freeze here.... ♪"
+    <t xml:space="preserve">[name="FrostNova"]  'Even time itself will freeze here.... ♪'
 </t>
   </si>
   <si>
